--- a/va_facility_data_2025-02-20/Sussex County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sussex%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Sussex County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sussex%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rb389a530def74459aae17d5b0fd23cbb"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R71b49f686ac7415cbe4b02c2968c6f10"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R61710195ed7c4376a67dc41a1b5b8f0d"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rf974590aea7249b59a1c5b955ed611b3"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R17081211031f4261bcc74003a5afae96"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc286b08c5f9f49eeb30d6f9bc78066c8"/>
   </x:sheets>
 </x:workbook>
 </file>
